--- a/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="已建系统" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
-    <t>部门已建政务信息系统调查表（审计统计表）</t>
+    <t>部门已建政务信息系统调查表</t>
   </si>
   <si>
     <t>系统基本信息</t>
@@ -638,10 +638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
@@ -680,7 +680,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,44 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,6 +746,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -776,16 +784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +809,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -817,14 +825,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,6 +887,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -899,169 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,17 +1169,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,22 +1219,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,166 +1257,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1822,47 +1822,47 @@
   <dimension ref="A1:BS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A1" sqref="A1:BR1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="4.62878787878788" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="7.9037037037037" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.08888888888889" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.362962962963" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.72592592592593" style="4" customWidth="1"/>
-    <col min="5" max="6" width="7.17777777777778" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.9037037037037" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.45185185185185" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.45185185185185" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.26666666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.2666666666667" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.17777777777778" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.2666666666667" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.9037037037037" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.4518518518519" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.1777777777778" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.2666666666667" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.36296296296296" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.36296296296296" style="4" customWidth="1"/>
-    <col min="21" max="21" width="6.62962962962963" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.45185185185185" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.81481481481481" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.62962962962963" style="4" customWidth="1"/>
-    <col min="25" max="25" width="8.72592592592593" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.2666666666667" style="4" customWidth="1"/>
-    <col min="27" max="28" width="12.1777777777778" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.1777777777778" style="4" customWidth="1"/>
-    <col min="30" max="31" width="12.7259259259259" style="4" customWidth="1"/>
-    <col min="32" max="33" width="10.4518518518519" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.90151515151515" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.09090909090909" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.3636363636364" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.72727272727273" style="4" customWidth="1"/>
+    <col min="5" max="6" width="7.17424242424242" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.90151515151515" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.45454545454546" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.45454545454545" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.26515151515152" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.2651515151515" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.17424242424242" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.2651515151515" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.90151515151515" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.4545454545455" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.1742424242424" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.2651515151515" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.36363636363636" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.36363636363636" style="4" customWidth="1"/>
+    <col min="21" max="21" width="6.62878787878788" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.45454545454546" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.81818181818182" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.62878787878788" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.72727272727273" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.2651515151515" style="4" customWidth="1"/>
+    <col min="27" max="28" width="12.1742424242424" style="4" customWidth="1"/>
+    <col min="29" max="29" width="10.1742424242424" style="4" customWidth="1"/>
+    <col min="30" max="31" width="12.7272727272727" style="4" customWidth="1"/>
+    <col min="32" max="33" width="10.4545454545455" style="4" customWidth="1"/>
     <col min="34" max="64" width="15" style="4" customWidth="1"/>
     <col min="65" max="65" width="8" style="4" customWidth="1"/>
-    <col min="66" max="66" width="9.45185185185185" style="4" customWidth="1"/>
-    <col min="67" max="67" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="68" max="69" width="10.362962962963" style="4" customWidth="1"/>
+    <col min="66" max="66" width="9.45454545454546" style="4" customWidth="1"/>
+    <col min="67" max="67" width="9.62878787878788" style="4" customWidth="1"/>
+    <col min="68" max="69" width="10.3636363636364" style="4" customWidth="1"/>
     <col min="70" max="70" width="12" style="4" customWidth="1"/>
-    <col min="71" max="71" width="4.62962962962963" style="5"/>
-    <col min="72" max="16384" width="4.62962962962963" style="6"/>
+    <col min="71" max="71" width="4.62878787878788" style="5"/>
+    <col min="72" max="16384" width="4.62878787878788" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.95" customHeight="1" spans="1:70">
@@ -2697,10 +2697,10 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9037037037037" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90151515151515" defaultRowHeight="15.6"/>
   <cols>
-    <col min="8" max="8" width="16.1777777777778" customWidth="1"/>
-    <col min="10" max="10" width="17.8148148148148" customWidth="1"/>
+    <col min="8" max="8" width="16.1742424242424" customWidth="1"/>
+    <col min="10" max="10" width="17.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -2856,7 +2856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="42.75" spans="1:1">
+    <row r="9" ht="46.8" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>

--- a/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17712" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="已建系统" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="197">
   <si>
     <t>部门已建政务信息系统调查表</t>
   </si>
@@ -43,6 +44,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>序号</t>
@@ -246,6 +248,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数据备份量（</t>
@@ -255,7 +258,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -264,6 +267,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -632,20 +636,32 @@
   <si>
     <t>基础设施层系统</t>
   </si>
+  <si>
+    <t>是否脱密处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftmcl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用对象详细说明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sydxxxsm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -657,7 +673,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,185 +685,42 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,216 +729,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1159,253 +851,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1425,25 +875,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,46 +887,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,62 +911,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1813,184 +1234,187 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BS5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:BR1"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62878787878788" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="28.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.90151515151515" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.09090909090909" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.3636363636364" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.72727272727273" style="4" customWidth="1"/>
-    <col min="5" max="6" width="7.17424242424242" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.90151515151515" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.45454545454546" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.45454545454545" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.26515151515152" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.2651515151515" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.17424242424242" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.2651515151515" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.90151515151515" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.4545454545455" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.1742424242424" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.2651515151515" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.36363636363636" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.36363636363636" style="4" customWidth="1"/>
-    <col min="21" max="21" width="6.62878787878788" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.45454545454546" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.81818181818182" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.62878787878788" style="4" customWidth="1"/>
-    <col min="25" max="25" width="8.72727272727273" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.2651515151515" style="4" customWidth="1"/>
-    <col min="27" max="28" width="12.1742424242424" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.1742424242424" style="4" customWidth="1"/>
-    <col min="30" max="31" width="12.7272727272727" style="4" customWidth="1"/>
-    <col min="32" max="33" width="10.4545454545455" style="4" customWidth="1"/>
-    <col min="34" max="64" width="15" style="4" customWidth="1"/>
-    <col min="65" max="65" width="8" style="4" customWidth="1"/>
-    <col min="66" max="66" width="9.45454545454546" style="4" customWidth="1"/>
-    <col min="67" max="67" width="9.62878787878788" style="4" customWidth="1"/>
-    <col min="68" max="69" width="10.3636363636364" style="4" customWidth="1"/>
-    <col min="70" max="70" width="12" style="4" customWidth="1"/>
-    <col min="71" max="71" width="4.62878787878788" style="5"/>
-    <col min="72" max="16384" width="4.62878787878788" style="6"/>
+    <col min="1" max="1" width="7.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="7.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.26953125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.1796875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.90625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.36328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11.08984375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.453125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="10.26953125" style="4" customWidth="1"/>
+    <col min="28" max="29" width="12.1796875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" style="4" customWidth="1"/>
+    <col min="31" max="32" width="12.7265625" style="4" customWidth="1"/>
+    <col min="33" max="34" width="10.453125" style="4" customWidth="1"/>
+    <col min="35" max="66" width="15" style="4" customWidth="1"/>
+    <col min="67" max="67" width="8" style="4" customWidth="1"/>
+    <col min="68" max="68" width="9.453125" style="4" customWidth="1"/>
+    <col min="69" max="69" width="9.6328125" style="4" customWidth="1"/>
+    <col min="70" max="71" width="10.36328125" style="4" customWidth="1"/>
+    <col min="72" max="72" width="12" style="4" customWidth="1"/>
+    <col min="73" max="73" width="4.6328125" style="5"/>
+    <col min="74" max="16384" width="4.6328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.95" customHeight="1" spans="1:70">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:73" ht="58.95" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:71">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:73" s="2" customFormat="1" ht="28.05" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
-      <c r="AQ2" s="23" t="s">
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
       <c r="AT2" s="23"/>
       <c r="AU2" s="23"/>
       <c r="AV2" s="23"/>
@@ -2002,646 +1426,690 @@
       <c r="BB2" s="23"/>
       <c r="BC2" s="23"/>
       <c r="BD2" s="23"/>
-      <c r="BE2" s="25" t="s">
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="26" t="s">
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="31"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="18"/>
     </row>
-    <row r="3" customHeight="1" spans="1:71">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:73" ht="28.05" customHeight="1">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="18" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="W3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Y3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AB3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AC3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AD3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AE3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AF3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AG3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AH3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AI3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AJ3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AK3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AL3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AM3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="18" t="s">
+      <c r="AN3" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="18" t="s">
+      <c r="AP3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" s="18" t="s">
+      <c r="AQ3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="18" t="s">
+      <c r="AR3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AS3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AW3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AX3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24" t="s">
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="BA3" s="24" t="s">
+      <c r="BC3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="BB3" s="24" t="s">
+      <c r="BD3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BC3" s="24" t="s">
+      <c r="BE3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BD3" s="24" t="s">
+      <c r="BF3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="BE3" s="27" t="s">
+      <c r="BG3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="28" t="s">
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="BI3" s="28" t="s">
+      <c r="BK3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="BJ3" s="28" t="s">
+      <c r="BL3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BK3" s="28" t="s">
+      <c r="BM3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="BL3" s="28" t="s">
+      <c r="BN3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BM3" s="28" t="s">
+      <c r="BO3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BN3" s="28" t="s">
+      <c r="BP3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="BO3" s="28" t="s">
+      <c r="BQ3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="BP3" s="28" t="s">
+      <c r="BR3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="BQ3" s="28" t="s">
+      <c r="BS3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BT3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="BS3" s="6"/>
+      <c r="BU3" s="6"/>
     </row>
-    <row r="4" ht="36" customHeight="1" spans="1:71">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:73" ht="36" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="33"/>
+      <c r="V4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="W4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="X4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Y4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Z4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AA4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AC4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AD4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AE4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AF4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AG4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AH4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AI4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AK4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AL4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AM4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AP4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AQ4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AR4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ4" s="24" t="s">
+      <c r="AS4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="24" t="s">
+      <c r="AT4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AS4" s="24" t="s">
+      <c r="AU4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24" t="s">
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AW4" s="24" t="s">
+      <c r="AY4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AX4" s="24" t="s">
+      <c r="AZ4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AY4" s="24" t="s">
+      <c r="BA4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="27" t="s">
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="BF4" s="27" t="s">
+      <c r="BH4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BG4" s="27" t="s">
+      <c r="BI4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="29" t="s">
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="29" t="s">
+      <c r="BL4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BK4" s="29" t="s">
+      <c r="BM4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="BL4" s="29" t="s">
+      <c r="BN4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="BM4" s="29" t="s">
+      <c r="BO4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="BN4" s="29" t="s">
+      <c r="BP4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="BO4" s="29" t="s">
+      <c r="BQ4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="BP4" s="29" t="s">
+      <c r="BR4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="BQ4" s="29" t="s">
+      <c r="BS4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="6"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="6"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="13.95" customHeight="1" spans="1:70">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:73" s="3" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="W5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="X5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AB5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AC5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AD5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AE5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AF5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AH5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AI5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AK5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AL5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AL5" s="15" t="s">
+      <c r="AM5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AM5" s="15" t="s">
+      <c r="AN5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AN5" s="15" t="s">
+      <c r="AP5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AO5" s="15" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AR5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AQ5" s="17" t="s">
+      <c r="AS5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AR5" s="17" t="s">
+      <c r="AT5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AS5" s="20" t="s">
+      <c r="AU5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AT5" s="15" t="s">
+      <c r="AV5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AU5" s="16" t="s">
+      <c r="AW5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AX5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AW5" s="15" t="s">
+      <c r="AY5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AX5" s="15" t="s">
+      <c r="AZ5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AY5" s="15" t="s">
+      <c r="BA5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AZ5" s="15" t="s">
+      <c r="BB5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BA5" s="15" t="s">
+      <c r="BC5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="BB5" s="15" t="s">
+      <c r="BD5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="BC5" s="15" t="s">
+      <c r="BE5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="BD5" s="15" t="s">
+      <c r="BF5" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="BE5" s="15" t="s">
+      <c r="BG5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="BF5" s="15" t="s">
+      <c r="BH5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BG5" s="15" t="s">
+      <c r="BI5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BH5" s="15" t="s">
+      <c r="BJ5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BI5" s="15" t="s">
+      <c r="BK5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="BJ5" s="15" t="s">
+      <c r="BL5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="BK5" s="15" t="s">
+      <c r="BM5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="BL5" s="15" t="s">
+      <c r="BN5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="BM5" s="15" t="s">
+      <c r="BO5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="BN5" s="15" t="s">
+      <c r="BP5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="BO5" s="15" t="s">
+      <c r="BQ5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="BP5" s="15" t="s">
+      <c r="BR5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="BQ5" s="15" t="s">
+      <c r="BS5" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="BR5" s="15" t="s">
+      <c r="BT5" s="10" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A1:BR1"/>
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="AQ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BQ2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="BE3:BG3"/>
+  <mergeCells count="67">
+    <mergeCell ref="BR3:BR4"/>
+    <mergeCell ref="BS3:BS4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BP4"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="BL3:BL4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
@@ -2649,58 +2117,31 @@
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BH3:BH4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="BL3:BL4"/>
-    <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BR3:BR4"/>
+    <mergeCell ref="A1:BT1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BS2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90151515151515" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="8" max="8" width="16.1742424242424" customWidth="1"/>
-    <col min="10" max="10" width="17.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -2834,7 +2275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>184</v>
       </c>
@@ -2848,7 +2289,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>187</v>
       </c>
@@ -2856,34 +2297,34 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="46.8" spans="1:1">
+    <row r="9" spans="1:12" ht="46.8">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/yjTemplate.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="5268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="172">
   <si>
     <t>系统使用信息</t>
   </si>
@@ -356,7 +357,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -597,16 +598,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +646,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -672,162 +668,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -836,8 +681,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,222 +697,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1097,377 +762,115 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1754,784 +1157,795 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9" style="29"/>
+    <col min="15" max="16" width="9" style="29"/>
+    <col min="48" max="48" width="9" style="29"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:71">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
+    <row r="1" spans="1:71" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
     </row>
-    <row r="2" ht="17.4" spans="1:71">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="12" t="s">
+    <row r="2" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="13" t="s">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="16" t="s">
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="17" t="s">
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="20"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="10"/>
     </row>
-    <row r="3" spans="1:71">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14" t="s">
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14" t="s">
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BB3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BD3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BE3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BF3" s="18" t="s">
+      <c r="BF3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19" t="s">
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BJ3" s="19" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BK3" s="19" t="s">
+      <c r="BK3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BL3" s="19" t="s">
+      <c r="BL3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BM3" s="19" t="s">
+      <c r="BM3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BN3" s="19" t="s">
+      <c r="BN3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BO3" s="19" t="s">
+      <c r="BO3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BP3" s="19" t="s">
+      <c r="BP3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BQ3" s="19" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BR3" s="19" t="s">
+      <c r="BR3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BS3" s="20" t="s">
+      <c r="BS3" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:71">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:71" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
+      <c r="T4" s="16"/>
+      <c r="U4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AL4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4" t="s">
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AP4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AQ4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AR4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AS4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AT4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14" t="s">
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AX4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="AY4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="15" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="18" t="s">
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BG4" s="18" t="s">
+      <c r="BG4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BH4" s="18" t="s">
+      <c r="BH4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19" t="s">
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BK4" s="19" t="s">
+      <c r="BK4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="19" t="s">
+      <c r="BL4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="19" t="s">
+      <c r="BM4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BN4" s="19" t="s">
+      <c r="BN4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BO4" s="19" t="s">
+      <c r="BO4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BP4" s="19" t="s">
+      <c r="BP4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BQ4" s="19" t="s">
+      <c r="BQ4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BR4" s="19" t="s">
+      <c r="BR4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BS4" s="20"/>
+      <c r="BS4" s="14"/>
     </row>
-    <row r="5" ht="21.6" spans="1:71">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:71" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="7" t="s">
+      <c r="AB5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AF5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" s="7" t="s">
+      <c r="AG5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AH5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AI5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AK5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AL5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AM5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AN5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AO5" s="7" t="s">
+      <c r="AO5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AP5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AR5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AS5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AU5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AV5" s="8" t="s">
+      <c r="AV5" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AX5" s="7" t="s">
+      <c r="AX5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AY5" s="7" t="s">
+      <c r="AY5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BA5" s="7" t="s">
+      <c r="BA5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BB5" s="7" t="s">
+      <c r="BB5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BC5" s="7" t="s">
+      <c r="BC5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BD5" s="7" t="s">
+      <c r="BD5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BE5" s="7" t="s">
+      <c r="BE5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BF5" s="7" t="s">
+      <c r="BF5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BG5" s="7" t="s">
+      <c r="BG5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BH5" s="7" t="s">
+      <c r="BH5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI5" s="7" t="s">
+      <c r="BI5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BJ5" s="7" t="s">
+      <c r="BJ5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BK5" s="7" t="s">
+      <c r="BK5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BL5" s="7" t="s">
+      <c r="BL5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BM5" s="7" t="s">
+      <c r="BM5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BN5" s="7" t="s">
+      <c r="BN5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BO5" s="7" t="s">
+      <c r="BO5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BP5" s="7" t="s">
+      <c r="BP5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BQ5" s="7" t="s">
+      <c r="BQ5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BR5" s="7" t="s">
+      <c r="BR5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BS5" s="21" t="s">
+      <c r="BS5" s="11" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="A1:BS1"/>
     <mergeCell ref="A2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
     <mergeCell ref="AR2:BE2"/>
     <mergeCell ref="BF2:BH2"/>
     <mergeCell ref="BI2:BR2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2542,17 +1956,8 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
@@ -2573,57 +1978,54 @@
     <mergeCell ref="AV3:AV4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BC3:BC4"/>
     <mergeCell ref="BD3:BD4"/>
     <mergeCell ref="BE3:BE4"/>
     <mergeCell ref="BI3:BI4"/>
     <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BP3:BP4"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BR3:BR4"/>
+    <mergeCell ref="BS3:BS4"/>
     <mergeCell ref="BK3:BK4"/>
     <mergeCell ref="BL3:BL4"/>
     <mergeCell ref="BM3:BM4"/>
     <mergeCell ref="BN3:BN4"/>
     <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BR3:BR4"/>
-    <mergeCell ref="BS3:BS4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>